--- a/Development/Excel/BitPacking.xlsx
+++ b/Development/Excel/BitPacking.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronplanck/Dropbox/SIMB3 Share/Cryosphere Innovation/Product/SIMB3/Development/Custom Temp String/simb3-temp-string/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronplanck/Dropbox/SIMB3 Share/Cryosphere Innovation/Product/SIMB3/Development/Custom Temp String/simb3-temp-string/Development/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793BB77D-597D-FE43-AE6F-C0AF85620E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F5581E-8031-9442-A289-CAC2F5D98F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24280" xr2:uid="{1B5466A9-2CE0-9D48-9818-1EE54E6DE531}"/>
+    <workbookView xWindow="3300" yWindow="880" windowWidth="37820" windowHeight="24280" xr2:uid="{1B5466A9-2CE0-9D48-9818-1EE54E6DE531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Sensor 1</t>
   </si>
@@ -119,13 +119,25 @@
   </si>
   <si>
     <t>Byte2</t>
+  </si>
+  <si>
+    <t>LSB1</t>
+  </si>
+  <si>
+    <t>MSB1</t>
+  </si>
+  <si>
+    <t>TempBin</t>
+  </si>
+  <si>
+    <t>Combined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +162,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,69 +247,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -301,15 +299,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -329,7 +341,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -617,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661E6457-E7E4-5745-BB54-768BE85195D8}">
-  <dimension ref="A2:AC46"/>
+  <dimension ref="A2:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,929 +650,912 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>7</v>
       </c>
-      <c r="E7" s="12">
-        <v>8</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
         <v>9</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="6">
         <v>10</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="6">
         <v>11</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="9">
         <v>12</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="J7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="6">
         <v>2</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="6">
         <v>3</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>7</v>
       </c>
-      <c r="E9" s="10">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
         <v>9</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>10</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>11</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="10">
         <v>12</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="J9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="5">
         <v>2</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="5">
         <v>3</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E10" s="4"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>7</v>
       </c>
-      <c r="E11" s="8">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
         <v>9</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>10</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>11</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="11">
         <v>12</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="J11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="4">
         <v>2</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="4">
         <v>3</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E12" s="4"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="6">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
         <v>9</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>10</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>11</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="12">
         <v>12</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="5">
+      <c r="J13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3">
         <v>2</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="3">
         <v>3</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E14" s="4"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="7">
         <v>5</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="7">
         <v>7</v>
       </c>
-      <c r="E15" s="14">
-        <v>8</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="7">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
         <v>9</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="7">
         <v>10</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="7">
         <v>11</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="13">
         <v>12</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="13">
+      <c r="J15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="7">
         <v>2</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="7">
         <v>3</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="8">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="8">
         <v>6</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="8">
         <v>7</v>
       </c>
-      <c r="E17" s="16">
-        <v>8</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="E17" s="8">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
         <v>9</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="8">
         <v>10</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="8">
         <v>11</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="14">
         <v>12</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="J17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="8">
         <v>2</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="8">
         <v>3</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
-        <v>1</v>
-      </c>
-      <c r="B22" s="11">
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6">
         <v>5</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="6">
         <v>6</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="6">
         <v>7</v>
       </c>
-      <c r="E22" s="12">
-        <v>8</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="E22" s="6">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6">
         <v>9</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="6">
         <v>10</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="6">
         <v>11</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="9">
         <v>12</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="31" t="s">
+      <c r="K22"/>
+      <c r="L22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="17"/>
+      <c r="K23"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
         <v>2</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6">
         <v>2</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="6">
         <v>4</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="5">
         <v>3</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="5">
         <v>4</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="17"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+      <c r="J24" s="17"/>
+      <c r="K24"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="17"/>
+      <c r="K25"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <v>3</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <v>6</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="5">
         <v>7</v>
       </c>
-      <c r="E26" s="10">
-        <v>8</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="5">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5">
         <v>9</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="5">
         <v>10</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="5">
         <v>11</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="10">
         <v>12</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="17"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="17"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="J26" s="17"/>
+      <c r="K26"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4">
         <v>5</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>6</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>7</v>
       </c>
-      <c r="E28" s="8">
-        <v>8</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4">
         <v>9</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <v>10</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <v>11</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="11">
         <v>12</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="17"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="J29" s="18"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+      <c r="K28"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="J29" s="17"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="3">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="H30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="7">
+      <c r="I30" s="3">
         <v>4</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="J30" s="17"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="J31" s="17"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3">
+        <v>11</v>
+      </c>
+      <c r="I32" s="12">
+        <v>12</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7">
+        <v>7</v>
+      </c>
+      <c r="E34" s="7">
+        <v>8</v>
+      </c>
+      <c r="F34" s="7">
+        <v>9</v>
+      </c>
+      <c r="G34" s="7">
+        <v>10</v>
+      </c>
+      <c r="H34" s="7">
+        <v>11</v>
+      </c>
+      <c r="I34" s="13">
+        <v>12</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="J35" s="17"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>8</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
         <v>2</v>
       </c>
-      <c r="H30" s="5">
+      <c r="D36" s="7">
         <v>3</v>
       </c>
-      <c r="I30" s="5">
+      <c r="E36" s="7">
         <v>4</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="J31" s="18"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="27">
+      <c r="F36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2</v>
+      </c>
+      <c r="H36" s="8">
         <v>3</v>
       </c>
-      <c r="B32" s="5">
+      <c r="I36" s="8">
+        <v>4</v>
+      </c>
+      <c r="J36" s="17"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="J37" s="17"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>9</v>
+      </c>
+      <c r="B38" s="8">
         <v>5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C38" s="8">
         <v>6</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D38" s="8">
         <v>7</v>
       </c>
-      <c r="E32" s="6">
-        <v>8</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E38" s="8">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8">
         <v>9</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G38" s="8">
         <v>10</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H38" s="8">
         <v>11</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I38" s="14">
         <v>12</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
-        <v>1</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="13">
-        <v>2</v>
-      </c>
-      <c r="D34" s="13">
-        <v>3</v>
-      </c>
-      <c r="E34" s="13">
-        <v>4</v>
-      </c>
-      <c r="F34" s="13">
-        <v>9</v>
-      </c>
-      <c r="G34" s="13">
-        <v>10</v>
-      </c>
-      <c r="H34" s="13">
-        <v>11</v>
-      </c>
-      <c r="I34" s="23">
-        <v>12</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="J35" s="18"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="27">
-        <v>2</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="13">
-        <v>2</v>
-      </c>
-      <c r="D36" s="13">
-        <v>3</v>
-      </c>
-      <c r="E36" s="13">
-        <v>4</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="15">
-        <v>2</v>
-      </c>
-      <c r="H36" s="15">
-        <v>3</v>
-      </c>
-      <c r="I36" s="15">
-        <v>4</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="J37" s="18"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-    </row>
-    <row r="38" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
-        <v>3</v>
-      </c>
-      <c r="B38" s="15">
-        <v>5</v>
-      </c>
-      <c r="C38" s="15">
-        <v>6</v>
-      </c>
-      <c r="D38" s="15">
-        <v>7</v>
-      </c>
-      <c r="E38" s="16">
-        <v>8</v>
-      </c>
-      <c r="F38" s="15">
-        <v>9</v>
-      </c>
-      <c r="G38" s="15">
-        <v>10</v>
-      </c>
-      <c r="H38" s="15">
-        <v>11</v>
-      </c>
-      <c r="I38" s="24">
-        <v>12</v>
-      </c>
-      <c r="J38" s="18"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
+      <c r="J38" s="17"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
@@ -1597,6 +1592,12 @@
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
@@ -1611,6 +1612,327 @@
       </c>
       <c r="H46" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
